--- a/biology/Botanique/Nicolas_Monardes/Nicolas_Monardes.xlsx
+++ b/biology/Botanique/Nicolas_Monardes/Nicolas_Monardes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Monardes (ou Nicolás Monardes), né vers 1493 à Séville et mort en 1588, est un médecin et un botaniste espagnol.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'université d'Alcalá, il obtient son titre de docteur en 1533. Il exerce la médecine à Séville et consacre de plus en plus de son temps au commerce, notamment celui des esclaves.
 Il publie plusieurs livres d'inégale importance. Dans Diálogo llamado pharmacodilosis (1536) il recommande l'étude de Dioscoride. De Secanda Vena in pleuriti Inter Grecos et Arabes Concordia (1539) où il débat de l'importance de la médecine grecque et de la médecine arabe. Dans De Rosa et partibus eius (1540), il traite de la rose et des agrumes.
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Primera y segunda y tercera partes de la historia medicinal, 1580 — Troisième partie.</t>
         </is>
